--- a/jpcore-r4/feature/swg1-注意事項の追加/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg1-注意事項の追加/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:59:32+00:00</t>
+    <t>2022-07-26T10:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
